--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193</t>
+    <t>193.2</t>
   </si>
   <si>
     <t>194</t>
@@ -104,6 +104,24 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Data richiesta trascrizione</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita</t>
+  </si>
+  <si>
+    <t>dataComunicazione</t>
+  </si>
+  <si>
+    <t>Riassunto</t>
+  </si>
+  <si>
+    <t>testoLibero</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -396,30 +414,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Dati della trascrizione</t>
-  </si>
-  <si>
-    <t>Tipo richiesta</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita</t>
-  </si>
-  <si>
-    <t>tipoDichiarazione</t>
-  </si>
-  <si>
-    <t>Data richiesta trascrizione</t>
-  </si>
-  <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Riassunto</t>
-  </si>
-  <si>
-    <t>testoLibero</t>
   </si>
 </sst>
 </file>
@@ -478,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -800,7 +794,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
@@ -834,19 +828,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -854,19 +848,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -874,19 +868,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -894,19 +888,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -914,19 +908,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -934,19 +928,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -954,19 +948,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -974,19 +968,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -994,19 +988,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -1014,19 +1008,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -1034,19 +1028,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -1054,19 +1048,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1074,19 +1068,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1094,19 +1088,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1114,19 +1108,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1134,19 +1128,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1154,19 +1148,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1174,19 +1168,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1194,19 +1188,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1214,19 +1208,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1234,19 +1228,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1254,19 +1248,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1274,19 +1268,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1294,19 +1288,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1314,19 +1308,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1334,19 +1328,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1354,19 +1348,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1374,19 +1368,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1394,19 +1388,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1414,19 +1408,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1434,19 +1428,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1454,19 +1448,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1474,19 +1468,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1494,19 +1488,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1514,19 +1508,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1534,19 +1528,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1554,19 +1548,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1574,19 +1568,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1594,19 +1588,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1614,19 +1608,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1634,19 +1628,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1654,19 +1648,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1674,19 +1668,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1694,19 +1688,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1714,19 +1708,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1734,19 +1728,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1754,19 +1748,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1774,19 +1768,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1794,19 +1788,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1814,19 +1808,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1834,19 +1828,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1854,19 +1848,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1874,19 +1868,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1894,19 +1888,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1914,19 +1908,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1934,19 +1928,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -1954,19 +1948,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -1974,19 +1968,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -1994,19 +1988,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2014,19 +2008,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2034,19 +2028,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2054,19 +2048,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2074,19 +2068,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2094,19 +2088,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2114,19 +2108,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2134,19 +2128,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2154,19 +2148,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2174,19 +2168,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2194,19 +2188,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2214,19 +2208,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2234,19 +2228,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2254,19 +2248,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2274,19 +2268,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2294,19 +2288,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2314,19 +2308,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2334,19 +2328,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2354,16 +2348,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>107</v>
@@ -2374,16 +2368,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>109</v>
@@ -2394,19 +2388,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2414,19 +2408,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2434,19 +2428,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2454,19 +2448,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2474,19 +2468,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2494,19 +2488,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2514,19 +2508,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2534,19 +2528,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2554,19 +2548,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2574,16 +2568,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>131</v>
@@ -2594,7 +2588,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>132</v>
@@ -2603,32 +2597,12 @@
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F107" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -389,7 +389,7 @@
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>evento.trascrizioneNascita.autoritaMittente</t>
+    <t>evento.trascrizioneNascita.atto.enteEstero</t>
   </si>
   <si>
     <t>Provincia ente</t>
@@ -414,6 +414,18 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
 </sst>
 </file>
@@ -472,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2531,7 +2543,7 @@
         <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
@@ -2540,7 +2552,7 @@
         <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2551,7 +2563,7 @@
         <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
@@ -2560,7 +2572,7 @@
         <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2571,16 +2583,16 @@
         <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2591,18 +2603,98 @@
         <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -496,6 +502,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -517,185 +524,215 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -717,1985 +754,2285 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -56,7 +56,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.2</t>
+    <t>193.20</t>
   </si>
   <si>
     <t>194</t>
@@ -502,7 +502,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,49 +32,52 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sentenza straniera</t>
+  </si>
+  <si>
+    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.20</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sentenza straniera</t>
-  </si>
-  <si>
-    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.20</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -755,2284 +758,2284 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -143,6 +143,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -273,6 +276,9 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -505,7 +511,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="46.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -907,7 +913,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -919,7 +925,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -927,7 +933,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -936,13 +942,13 @@
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
@@ -950,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -959,13 +965,13 @@
         <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
@@ -973,7 +979,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -982,13 +988,13 @@
         <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -996,7 +1002,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1005,13 +1011,13 @@
         <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -1019,7 +1025,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -1028,13 +1034,13 @@
         <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -1042,7 +1048,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
@@ -1051,13 +1057,13 @@
         <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
@@ -1065,7 +1071,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
@@ -1074,13 +1080,13 @@
         <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -1088,7 +1094,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
@@ -1097,13 +1103,13 @@
         <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1111,7 +1117,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
@@ -1120,13 +1126,13 @@
         <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1134,22 +1140,22 @@
         <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29">
@@ -1157,22 +1163,22 @@
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
@@ -1180,22 +1186,22 @@
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
@@ -1203,22 +1209,22 @@
         <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
@@ -1226,7 +1232,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>16</v>
@@ -1235,13 +1241,13 @@
         <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
@@ -1249,7 +1255,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>16</v>
@@ -1258,13 +1264,13 @@
         <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34">
@@ -1272,7 +1278,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>16</v>
@@ -1281,13 +1287,13 @@
         <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
@@ -1295,7 +1301,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>16</v>
@@ -1304,13 +1310,13 @@
         <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
@@ -1318,7 +1324,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>16</v>
@@ -1327,13 +1333,13 @@
         <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
@@ -1341,7 +1347,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -1350,13 +1356,13 @@
         <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
@@ -1364,22 +1370,22 @@
         <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
@@ -1387,36 +1393,36 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>42</v>
@@ -1425,504 +1431,504 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>42</v>
@@ -1936,19 +1942,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1965,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1982,19 +1988,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2011,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2034,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2057,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2074,19 +2080,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2103,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2126,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2149,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2172,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2195,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2218,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2241,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2264,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2287,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2310,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2333,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2356,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2379,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2402,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2425,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2448,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2471,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2494,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2517,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2540,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2557,16 +2563,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>25</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2603,16 +2609,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>28</v>
@@ -2626,19 +2632,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2655,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2678,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2701,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2718,19 +2724,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2741,19 +2747,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2764,19 +2770,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2787,19 +2793,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2810,19 +2816,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2833,19 +2839,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2856,19 +2862,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2879,19 +2885,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2902,19 +2908,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2925,19 +2931,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2948,19 +2954,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2971,19 +2977,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2994,19 +3000,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3017,19 +3023,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -2408,7 +2408,7 @@
         <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>90</v>
@@ -2822,7 +2822,7 @@
         <v>127</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>117</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -131,154 +131,148 @@
     <t>testoLibero</t>
   </si>
   <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.madre</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -511,7 +505,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="46.51953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -925,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -933,7 +927,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -942,13 +936,13 @@
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -956,7 +950,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -965,13 +959,13 @@
         <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -979,7 +973,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -988,13 +982,13 @@
         <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1002,7 +996,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1011,13 +1005,13 @@
         <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1025,7 +1019,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -1034,13 +1028,13 @@
         <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -1048,7 +1042,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
@@ -1057,13 +1051,13 @@
         <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1065,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
@@ -1080,13 +1074,13 @@
         <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -1094,7 +1088,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
@@ -1103,13 +1097,13 @@
         <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -1117,7 +1111,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
@@ -1126,13 +1120,13 @@
         <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -1140,7 +1134,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
@@ -1149,13 +1143,13 @@
         <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -1163,7 +1157,7 @@
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>16</v>
@@ -1172,13 +1166,13 @@
         <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -1186,7 +1180,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>16</v>
@@ -1195,13 +1189,13 @@
         <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -1209,7 +1203,7 @@
         <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>16</v>
@@ -1218,13 +1212,13 @@
         <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -1232,7 +1226,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>16</v>
@@ -1241,13 +1235,13 @@
         <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -1255,7 +1249,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>16</v>
@@ -1264,13 +1258,13 @@
         <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
@@ -1278,7 +1272,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>16</v>
@@ -1287,13 +1281,13 @@
         <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -1301,7 +1295,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>16</v>
@@ -1310,13 +1304,13 @@
         <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
@@ -1324,7 +1318,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>16</v>
@@ -1333,13 +1327,13 @@
         <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -1347,7 +1341,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -1356,13 +1350,13 @@
         <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -1370,7 +1364,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>16</v>
@@ -1379,13 +1373,13 @@
         <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
@@ -1393,7 +1387,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>16</v>
@@ -1402,18 +1396,18 @@
         <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>40</v>
@@ -1422,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>42</v>
@@ -1431,495 +1425,495 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>40</v>
@@ -1928,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>42</v>
@@ -1942,19 +1936,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1959,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1988,19 +1982,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2005,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2028,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2051,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2074,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2097,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2120,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2143,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2166,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2189,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2212,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2235,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2258,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2281,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2304,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2327,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2350,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2373,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2396,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2419,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2442,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2465,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2488,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2511,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2534,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2563,16 +2557,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>25</v>
@@ -2586,19 +2580,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2609,16 +2603,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>28</v>
@@ -2632,19 +2626,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2649,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2672,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2701,19 +2695,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2718,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2741,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2770,19 +2764,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2793,19 +2787,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2816,19 +2810,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2839,19 +2833,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2862,19 +2856,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2879,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2908,19 +2902,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2931,19 +2925,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2948,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2971,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3000,19 +2994,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3017,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -197,6 +197,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -335,24 +341,24 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
   </si>
   <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
     <t>Atto da trascrivere</t>
   </si>
   <si>
@@ -375,6 +381,9 @@
   </si>
   <si>
     <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -493,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1344,7 +1353,7 @@
         <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>41</v>
@@ -1367,7 +1376,7 @@
         <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>41</v>
@@ -1407,19 +1416,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1430,19 +1439,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1453,19 +1462,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1476,19 +1485,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1499,19 +1508,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1522,19 +1531,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1545,19 +1554,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1568,19 +1577,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1591,19 +1600,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1623,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1646,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1669,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1683,19 +1692,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1706,19 +1715,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1738,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1761,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1784,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1807,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1830,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1853,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1876,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1890,19 +1899,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1916,16 +1925,16 @@
         <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1939,16 +1948,16 @@
         <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1968,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1982,19 +1991,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2014,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2037,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2060,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2074,19 +2083,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2106,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2129,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2152,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2175,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2198,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2221,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2244,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2267,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2290,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2313,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2336,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2359,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2382,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2405,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2422,16 +2431,16 @@
         <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2445,16 +2454,16 @@
         <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2468,16 +2477,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2497,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2520,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2543,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2566,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2589,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2612,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2635,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2658,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2681,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2704,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2718,19 +2727,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2741,19 +2750,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2764,19 +2773,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2787,19 +2796,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2810,19 +2819,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2833,19 +2842,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2856,19 +2865,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2879,19 +2888,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2902,19 +2911,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2925,19 +2934,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2948,19 +2957,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2971,19 +2980,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2994,19 +3003,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3017,24 +3026,116 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E110" s="2" t="s">
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
+      <c r="C113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -269,7 +269,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -269,7 +269,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>Firmatario</t>
+    <t>flag firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -273,6 +273,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Madre</t>
@@ -502,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1439,19 +1463,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1462,19 +1486,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1485,19 +1509,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1508,19 +1532,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1531,19 +1555,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1554,19 +1578,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1577,19 +1601,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1600,19 +1624,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1623,19 +1647,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1670,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1693,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1716,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1739,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1762,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1785,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1808,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1831,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1854,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1853,19 +1877,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1876,19 +1900,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1899,19 +1923,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1922,19 +1946,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1945,19 +1969,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1968,19 +1992,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1991,19 +2015,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2014,19 +2038,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2037,19 +2061,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2060,19 +2084,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2107,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2130,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2153,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2176,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2199,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2222,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2245,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2268,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2291,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2314,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2337,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2360,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2383,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2406,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2405,19 +2429,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2428,19 +2452,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2451,19 +2475,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2474,19 +2498,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2497,19 +2521,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2520,19 +2544,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2543,19 +2567,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2566,19 +2590,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2589,19 +2613,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2636,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2659,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2658,19 +2682,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2681,19 +2705,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2704,19 +2728,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2727,19 +2751,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2750,19 +2774,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2797,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2796,19 +2820,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2843,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2842,19 +2866,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2865,19 +2889,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2888,19 +2912,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2911,19 +2935,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2934,19 +2958,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2957,19 +2981,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2980,19 +3004,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3003,19 +3027,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3050,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3073,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3096,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3095,19 +3119,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3118,24 +3142,300 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E114" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,6 +149,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -203,13 +209,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -526,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -986,7 +992,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>41</v>
@@ -1078,7 +1084,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>41</v>
@@ -1400,7 +1406,7 @@
         <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>41</v>
@@ -1423,7 +1429,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>41</v>
@@ -1555,19 +1561,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1578,19 +1584,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1601,19 +1607,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1624,19 +1630,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1647,19 +1653,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1670,19 +1676,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1693,19 +1699,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1716,19 +1722,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1745,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1762,19 +1768,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1791,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1814,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1837,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1854,19 +1860,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1877,19 +1883,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1906,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1929,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1952,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1975,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1998,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2021,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2044,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2067,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2090,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2113,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2136,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2159,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2179,16 +2185,16 @@
         <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2202,16 +2208,16 @@
         <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2251,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2274,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2297,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2320,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2343,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2366,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2389,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2412,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2435,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2458,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2481,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2504,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2527,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2550,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2573,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2596,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2619,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2642,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2665,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2688,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2711,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2734,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2757,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2780,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2800,16 +2806,16 @@
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2823,16 +2829,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2846,16 +2852,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2872,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2895,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2918,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2941,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2964,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2987,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3010,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3033,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3056,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3079,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3102,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3119,19 +3125,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3142,19 +3148,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3165,19 +3171,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3188,19 +3194,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3211,19 +3217,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3234,19 +3240,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3257,19 +3263,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3286,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3309,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3332,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3349,19 +3355,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3372,19 +3378,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3395,19 +3401,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3418,24 +3424,93 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E126" s="2" t="s">
+      <c r="C128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -532,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1429,7 +1435,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>41</v>
@@ -1452,7 +1458,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>41</v>
@@ -1584,19 +1590,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1613,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1636,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1659,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1676,19 +1682,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1705,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1728,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1751,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1774,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1797,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1820,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1843,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1866,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1889,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1912,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1935,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1981,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2004,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2027,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2050,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2073,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2096,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2119,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2142,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2165,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2188,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2211,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2231,16 +2237,16 @@
         <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2254,16 +2260,16 @@
         <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2280,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2303,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2326,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2349,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2372,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2395,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2418,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2441,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2464,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2510,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2533,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2556,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2579,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2602,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2625,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2648,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2671,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2694,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2717,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2740,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2763,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2786,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2809,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2832,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2855,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2875,16 +2881,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2898,16 +2904,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2921,16 +2927,16 @@
         <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2941,19 +2947,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2964,19 +2970,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2987,19 +2993,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3010,19 +3016,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3033,19 +3039,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3056,19 +3062,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3079,19 +3085,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3102,19 +3108,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3125,19 +3131,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3148,19 +3154,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3171,19 +3177,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3194,19 +3200,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3217,19 +3223,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3240,19 +3246,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3263,19 +3269,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3286,19 +3292,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3309,19 +3315,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3332,19 +3338,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3355,19 +3361,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3378,19 +3384,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3401,19 +3407,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3424,19 +3430,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3447,19 +3453,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3470,19 +3476,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3493,24 +3499,93 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -538,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1458,7 +1464,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>41</v>
@@ -1481,7 +1487,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>41</v>
@@ -1613,19 +1619,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1642,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1665,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1688,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1711,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1734,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1757,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1780,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1803,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1826,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1849,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1872,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1895,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1918,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1941,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1964,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1987,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2010,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2033,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2056,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2079,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2102,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2125,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2148,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2171,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2194,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2217,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2240,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2263,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2283,16 +2289,16 @@
         <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2306,16 +2312,16 @@
         <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2332,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2355,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2378,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2401,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2424,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2447,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2470,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2493,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2516,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2539,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2562,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2585,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2608,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2631,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2654,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2677,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2700,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2723,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2746,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2769,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2792,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2809,19 +2815,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2832,19 +2838,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2855,19 +2861,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2878,19 +2884,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2901,19 +2907,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2924,19 +2930,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2950,16 +2956,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2973,16 +2979,16 @@
         <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2996,16 +3002,16 @@
         <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3016,19 +3022,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3039,19 +3045,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3062,19 +3068,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3085,19 +3091,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3108,19 +3114,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3131,19 +3137,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3154,19 +3160,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3177,19 +3183,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3200,19 +3206,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3223,19 +3229,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3246,19 +3252,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3269,19 +3275,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3292,19 +3298,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3315,19 +3321,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3338,19 +3344,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3361,19 +3367,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3384,19 +3390,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3407,19 +3413,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3430,19 +3436,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3453,19 +3459,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3476,19 +3482,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3499,19 +3505,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3522,19 +3528,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3545,19 +3551,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3568,24 +3574,93 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="C134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+    <t>Copia integrale dell'atto di nascita intestatario</t>
   </si>
   <si>
     <t>SI</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3281,7 +3287,7 @@
         <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>107</v>
@@ -3298,19 +3304,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3321,16 +3327,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>134</v>
@@ -3344,7 +3350,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>135</v>
@@ -3353,7 +3359,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>136</v>
@@ -3367,19 +3373,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3390,16 +3396,16 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>139</v>
@@ -3413,16 +3419,16 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>141</v>
@@ -3436,7 +3442,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>142</v>
@@ -3445,7 +3451,7 @@
         <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>143</v>
@@ -3459,19 +3465,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3482,16 +3488,16 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>134</v>
@@ -3505,7 +3511,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>135</v>
@@ -3514,7 +3520,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>136</v>
@@ -3528,19 +3534,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3551,7 +3557,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>148</v>
@@ -3560,7 +3566,7 @@
         <v>16</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>149</v>
@@ -3574,7 +3580,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>150</v>
@@ -3583,7 +3589,7 @@
         <v>16</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>151</v>
@@ -3597,7 +3603,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>152</v>
@@ -3606,7 +3612,7 @@
         <v>16</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>153</v>
@@ -3620,7 +3626,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>154</v>
@@ -3629,7 +3635,7 @@
         <v>16</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>155</v>
@@ -3643,7 +3649,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>156</v>
@@ -3652,7 +3658,7 @@
         <v>16</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>157</v>
@@ -3661,6 +3667,29 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -550,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3028,19 +3034,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3051,16 +3057,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>110</v>
@@ -3074,7 +3080,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>111</v>
@@ -3083,7 +3089,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>112</v>
@@ -3097,7 +3103,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>113</v>
@@ -3106,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>114</v>
@@ -3120,7 +3126,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>115</v>
@@ -3129,7 +3135,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>116</v>
@@ -3143,7 +3149,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>117</v>
@@ -3152,7 +3158,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>118</v>
@@ -3166,7 +3172,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>119</v>
@@ -3175,10 +3181,10 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3189,19 +3195,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3212,7 +3218,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>122</v>
@@ -3221,10 +3227,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3235,19 +3241,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3258,7 +3264,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>125</v>
@@ -3267,7 +3273,7 @@
         <v>16</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>126</v>
@@ -3281,7 +3287,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>127</v>
@@ -3290,7 +3296,7 @@
         <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>128</v>
@@ -3304,16 +3310,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>130</v>
@@ -3327,19 +3333,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3350,16 +3356,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>136</v>
@@ -3373,7 +3379,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>137</v>
@@ -3382,7 +3388,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>138</v>
@@ -3396,19 +3402,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3419,16 +3425,16 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>141</v>
@@ -3442,16 +3448,16 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>143</v>
@@ -3465,7 +3471,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>144</v>
@@ -3474,7 +3480,7 @@
         <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>145</v>
@@ -3488,19 +3494,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3511,16 +3517,16 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>136</v>
@@ -3534,7 +3540,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>137</v>
@@ -3543,7 +3549,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>138</v>
@@ -3557,19 +3563,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3580,7 +3586,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>150</v>
@@ -3589,7 +3595,7 @@
         <v>16</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>151</v>
@@ -3603,7 +3609,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>152</v>
@@ -3612,7 +3618,7 @@
         <v>16</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>153</v>
@@ -3626,7 +3632,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>154</v>
@@ -3635,7 +3641,7 @@
         <v>16</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>155</v>
@@ -3649,7 +3655,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>156</v>
@@ -3658,7 +3664,7 @@
         <v>16</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>157</v>
@@ -3672,7 +3678,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>158</v>
@@ -3681,7 +3687,7 @@
         <v>16</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>159</v>
@@ -3690,6 +3696,29 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -327,12 +327,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto nascita intestatario</t>
@@ -556,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3034,19 +3028,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3057,16 +3051,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>110</v>
@@ -3080,7 +3074,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>111</v>
@@ -3089,7 +3083,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>112</v>
@@ -3103,7 +3097,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>113</v>
@@ -3112,7 +3106,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>114</v>
@@ -3126,7 +3120,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>115</v>
@@ -3135,7 +3129,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>116</v>
@@ -3149,7 +3143,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>117</v>
@@ -3158,7 +3152,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>118</v>
@@ -3172,7 +3166,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>119</v>
@@ -3181,10 +3175,10 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3195,19 +3189,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3218,7 +3212,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>122</v>
@@ -3227,10 +3221,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3241,19 +3235,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3264,7 +3258,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>125</v>
@@ -3273,7 +3267,7 @@
         <v>16</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>126</v>
@@ -3287,7 +3281,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>127</v>
@@ -3296,7 +3290,7 @@
         <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>128</v>
@@ -3310,16 +3304,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>130</v>
@@ -3333,19 +3327,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3356,16 +3350,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>136</v>
@@ -3379,7 +3373,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>137</v>
@@ -3388,7 +3382,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>138</v>
@@ -3402,19 +3396,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3425,16 +3419,16 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>141</v>
@@ -3448,16 +3442,16 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>143</v>
@@ -3471,7 +3465,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>144</v>
@@ -3480,7 +3474,7 @@
         <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>145</v>
@@ -3494,19 +3488,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3517,16 +3511,16 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>136</v>
@@ -3540,7 +3534,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>137</v>
@@ -3549,7 +3543,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>138</v>
@@ -3563,19 +3557,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3586,7 +3580,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>150</v>
@@ -3595,7 +3589,7 @@
         <v>16</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>151</v>
@@ -3609,7 +3603,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>152</v>
@@ -3618,7 +3612,7 @@
         <v>16</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>153</v>
@@ -3632,7 +3626,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>154</v>
@@ -3641,7 +3635,7 @@
         <v>16</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>155</v>
@@ -3655,7 +3649,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>156</v>
@@ -3664,7 +3658,7 @@
         <v>16</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>157</v>
@@ -3678,7 +3672,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>158</v>
@@ -3687,7 +3681,7 @@
         <v>16</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>159</v>
@@ -3696,29 +3690,6 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -556,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1062,7 +1074,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>41</v>
@@ -1085,7 +1097,7 @@
         <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>41</v>
@@ -1131,7 +1143,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>41</v>
@@ -1154,7 +1166,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>41</v>
@@ -1499,7 +1511,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>41</v>
@@ -1545,7 +1557,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>41</v>
@@ -1654,19 +1666,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1677,19 +1689,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1700,19 +1712,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1723,19 +1735,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1746,19 +1758,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1769,19 +1781,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1804,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1815,19 +1827,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1850,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1861,19 +1873,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1884,19 +1896,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1907,19 +1919,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1930,19 +1942,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1953,19 +1965,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1976,19 +1988,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1999,19 +2011,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2022,19 +2034,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2045,19 +2057,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2080,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2091,19 +2103,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2126,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2149,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2160,19 +2172,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2183,19 +2195,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2206,19 +2218,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2241,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2252,19 +2264,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2275,19 +2287,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2310,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2333,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2356,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2379,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2390,19 +2402,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2425,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2448,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2471,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2494,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2517,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2540,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2551,19 +2563,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2586,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2597,19 +2609,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2620,19 +2632,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2643,19 +2655,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2666,19 +2678,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2689,19 +2701,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2712,19 +2724,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2735,19 +2747,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2758,19 +2770,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2781,19 +2793,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2804,19 +2816,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2827,19 +2839,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2850,19 +2862,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2873,19 +2885,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2896,19 +2908,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2919,19 +2931,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2942,19 +2954,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2965,19 +2977,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2988,19 +3000,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3011,19 +3023,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3034,19 +3046,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3060,16 +3072,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3083,16 +3095,16 @@
         <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3106,16 +3118,16 @@
         <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3129,16 +3141,16 @@
         <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3152,16 +3164,16 @@
         <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3175,16 +3187,16 @@
         <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3195,19 +3207,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3218,19 +3230,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3241,19 +3253,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3264,19 +3276,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3287,19 +3299,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3310,19 +3322,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3333,19 +3345,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3356,19 +3368,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3379,19 +3391,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3402,19 +3414,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3425,19 +3437,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3448,19 +3460,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3471,19 +3483,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3494,19 +3506,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3517,19 +3529,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3540,19 +3552,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3563,19 +3575,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3586,19 +3598,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3609,19 +3621,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C133" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3632,19 +3644,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3655,19 +3667,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3678,19 +3690,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3701,24 +3713,162 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="C141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>26</v>
       </c>
     </row>
